--- a/data/trans_orig/P79_n_R2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P79_n_R2-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>8849</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4119</v>
+        <v>4080</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16608</v>
+        <v>15925</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01607031421207509</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007481114703647549</v>
+        <v>0.00740996955621664</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03016280312776037</v>
+        <v>0.02892161057717737</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -762,19 +762,19 @@
         <v>6349</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3010</v>
+        <v>2877</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12866</v>
+        <v>12576</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0129994825931723</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006161896841181195</v>
+        <v>0.005891423841738527</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02634267862876146</v>
+        <v>0.02574815555831069</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -783,19 +783,19 @@
         <v>15198</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>8819</v>
+        <v>9040</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24591</v>
+        <v>23862</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01462682478901747</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008487950731444977</v>
+        <v>0.008700002336392062</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02366722895730905</v>
+        <v>0.02296590934691737</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>541769</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>534010</v>
+        <v>534693</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>546499</v>
+        <v>546538</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9839296857879248</v>
+        <v>0.9839296857879251</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9698371968722393</v>
+        <v>0.9710783894228224</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9925188852963525</v>
+        <v>0.9925900304437834</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>678</v>
@@ -833,19 +833,19 @@
         <v>482062</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>475545</v>
+        <v>475835</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>485401</v>
+        <v>485534</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9870005174068277</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9736573213712382</v>
+        <v>0.9742518444416888</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9938381031588188</v>
+        <v>0.9941085761582611</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1224</v>
@@ -854,19 +854,19 @@
         <v>1023831</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1014438</v>
+        <v>1015167</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1030210</v>
+        <v>1029989</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9853731752109828</v>
+        <v>0.9853731752109826</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.976332771042691</v>
+        <v>0.977034090653083</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9915120492685552</v>
+        <v>0.991299997663608</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>9421</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4644</v>
+        <v>4129</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17099</v>
+        <v>17055</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.01949687544446392</v>
+        <v>0.01949687544446391</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.009611580543799543</v>
+        <v>0.008544978372046279</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03538547349570789</v>
+        <v>0.03529571752641791</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -979,19 +979,19 @@
         <v>7042</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3052</v>
+        <v>3496</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13100</v>
+        <v>13351</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01664289810418117</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007213826439584928</v>
+        <v>0.008262752612141261</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03095767463719375</v>
+        <v>0.03155247471522569</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -1000,19 +1000,19 @@
         <v>16463</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>9985</v>
+        <v>9611</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>25090</v>
+        <v>27512</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01816446141687224</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0110171571447752</v>
+        <v>0.01060434738395548</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02768277646238482</v>
+        <v>0.0303543244271435</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>473791</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>466113</v>
+        <v>466157</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>478568</v>
+        <v>479083</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9805031245555362</v>
+        <v>0.9805031245555361</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9646145265042921</v>
+        <v>0.9647042824735823</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9903884194562005</v>
+        <v>0.9914550216279536</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>581</v>
@@ -1050,19 +1050,19 @@
         <v>416101</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>410043</v>
+        <v>409792</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>420091</v>
+        <v>419647</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9833571018958188</v>
+        <v>0.9833571018958187</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9690423253628057</v>
+        <v>0.9684475252847723</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9927861735604145</v>
+        <v>0.9917372473878585</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1053</v>
@@ -1071,19 +1071,19 @@
         <v>889892</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>881265</v>
+        <v>878843</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>896370</v>
+        <v>896744</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9818355385831278</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9723172235376151</v>
+        <v>0.969645675572857</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9889828428552248</v>
+        <v>0.9893956526160447</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>29420</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20103</v>
+        <v>18943</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40994</v>
+        <v>40637</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.06238272923139387</v>
+        <v>0.06238272923139386</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04262668967267743</v>
+        <v>0.04016626676620667</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08692256854362274</v>
+        <v>0.08616524375711269</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1196,19 +1196,19 @@
         <v>4379</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1828</v>
+        <v>1616</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8097</v>
+        <v>8392</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02335563274231224</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009749325163306075</v>
+        <v>0.008620814051012948</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0431850836500316</v>
+        <v>0.04475956482177528</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>37</v>
@@ -1217,19 +1217,19 @@
         <v>33800</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24066</v>
+        <v>23078</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>46861</v>
+        <v>45753</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05128065866138169</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03651315487918553</v>
+        <v>0.03501463641066058</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07109692975607712</v>
+        <v>0.06941652465520529</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>442192</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>430618</v>
+        <v>430975</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>451509</v>
+        <v>452669</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9376172707686062</v>
+        <v>0.9376172707686061</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9130774314563773</v>
+        <v>0.9138347562428875</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9573733103273226</v>
+        <v>0.9598337332337934</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>282</v>
@@ -1267,19 +1267,19 @@
         <v>183118</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>179400</v>
+        <v>179105</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>185669</v>
+        <v>185881</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9766443672576877</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9568149163499685</v>
+        <v>0.9552404351782245</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9902506748366939</v>
+        <v>0.9913791859489871</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>740</v>
@@ -1288,19 +1288,19 @@
         <v>625309</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>612248</v>
+        <v>613356</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>635043</v>
+        <v>636031</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9487193413386183</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9289030702439232</v>
+        <v>0.9305834753447949</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9634868451208147</v>
+        <v>0.9649853635893394</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>53028</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>38753</v>
+        <v>38919</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>71584</v>
+        <v>71175</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.04685106570391005</v>
+        <v>0.04685106570391004</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03423864465094306</v>
+        <v>0.03438580895072235</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06324548588367192</v>
+        <v>0.06288407425384147</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -1413,19 +1413,19 @@
         <v>21825</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14332</v>
+        <v>14795</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>32031</v>
+        <v>31174</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02534184589440246</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01664143539884896</v>
+        <v>0.01717903225031573</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03719252741372501</v>
+        <v>0.03619788753121565</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>78</v>
@@ -1434,19 +1434,19 @@
         <v>74853</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>59113</v>
+        <v>58892</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>95664</v>
+        <v>94930</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.03755679478593398</v>
+        <v>0.037556794785934</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0296594287744023</v>
+        <v>0.02954871957418311</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04799875453445367</v>
+        <v>0.04763025087302965</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>1078815</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1060259</v>
+        <v>1060668</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1093090</v>
+        <v>1092924</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9531489342960898</v>
+        <v>0.95314893429609</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.936754514116328</v>
+        <v>0.9371159257461583</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9657613553490572</v>
+        <v>0.9656141910492777</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1202</v>
@@ -1484,19 +1484,19 @@
         <v>839386</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>829180</v>
+        <v>830037</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>846879</v>
+        <v>846416</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9746581541055974</v>
+        <v>0.9746581541055976</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9628074725862747</v>
+        <v>0.9638021124687843</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9833585646011508</v>
+        <v>0.9828209677496844</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2270</v>
@@ -1505,19 +1505,19 @@
         <v>1918201</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1897390</v>
+        <v>1898124</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1933941</v>
+        <v>1934162</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9624432052140659</v>
+        <v>0.9624432052140662</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9520012454655464</v>
+        <v>0.9523697491269708</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9703405712255978</v>
+        <v>0.970451280425817</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>33081</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>22682</v>
+        <v>23595</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>46360</v>
+        <v>47741</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.0582454932108145</v>
+        <v>0.05824549321081451</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03993504098749081</v>
+        <v>0.04154329935077644</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08162442276703445</v>
+        <v>0.08405714457772555</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>81</v>
@@ -1630,19 +1630,19 @@
         <v>62175</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>49646</v>
+        <v>48812</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>78775</v>
+        <v>78751</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07483273479160892</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05975385199390252</v>
+        <v>0.05875006067888826</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09481269398322671</v>
+        <v>0.09478327273919901</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>113</v>
@@ -1651,19 +1651,19 @@
         <v>95256</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>78950</v>
+        <v>77651</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>116182</v>
+        <v>114888</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.06809777793745661</v>
+        <v>0.0680977779374566</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05644046457506586</v>
+        <v>0.05551177813839108</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08305725773673134</v>
+        <v>0.08213229896808373</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>534883</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>521604</v>
+        <v>520223</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>545282</v>
+        <v>544369</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9417545067891855</v>
+        <v>0.9417545067891853</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9183755772329657</v>
+        <v>0.9159428554222743</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9600649590125093</v>
+        <v>0.9584567006492238</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1209</v>
@@ -1701,19 +1701,19 @@
         <v>768675</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>752075</v>
+        <v>752099</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>781204</v>
+        <v>782038</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9251672652083911</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9051873060167731</v>
+        <v>0.905216727260801</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9402461480060974</v>
+        <v>0.9412499393211118</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1724</v>
@@ -1722,19 +1722,19 @@
         <v>1303558</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1282632</v>
+        <v>1283926</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1319864</v>
+        <v>1321163</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9319022220625435</v>
+        <v>0.9319022220625434</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9169427422632687</v>
+        <v>0.9178677010319164</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9435595354249341</v>
+        <v>0.9444882218616092</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>7383</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2389</v>
+        <v>1854</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19487</v>
+        <v>18192</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.03112089820340978</v>
+        <v>0.03112089820340979</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01006893718673492</v>
+        <v>0.007814450884632729</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08214355946380844</v>
+        <v>0.07668777095726169</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>55</v>
@@ -1847,19 +1847,19 @@
         <v>47025</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>34157</v>
+        <v>35359</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>62907</v>
+        <v>62711</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.05569871536310963</v>
+        <v>0.05569871536310964</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04045641784808946</v>
+        <v>0.04188026506847574</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07450957268159199</v>
+        <v>0.07427746607263432</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>59</v>
@@ -1868,19 +1868,19 @@
         <v>54408</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>41073</v>
+        <v>41212</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>71824</v>
+        <v>74245</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05030759828565907</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03797775964387091</v>
+        <v>0.03810581121634286</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06641126751015552</v>
+        <v>0.06864931706190398</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>229845</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>217741</v>
+        <v>219036</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>234839</v>
+        <v>235374</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9688791017965903</v>
+        <v>0.9688791017965901</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9178564405361916</v>
+        <v>0.9233122290427384</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.989931062813265</v>
+        <v>0.9921855491153673</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1104</v>
@@ -1918,19 +1918,19 @@
         <v>797256</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>781374</v>
+        <v>781570</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>810124</v>
+        <v>808922</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9443012846368903</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9254904273184079</v>
+        <v>0.9257225339273654</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9595435821519105</v>
+        <v>0.9581197349315241</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1212</v>
@@ -1939,19 +1939,19 @@
         <v>1027101</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1009685</v>
+        <v>1007264</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1040436</v>
+        <v>1040297</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.949692401714341</v>
+        <v>0.9496924017143411</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9335887324898446</v>
+        <v>0.931350682938096</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.962022240356129</v>
+        <v>0.961894188783657</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>141182</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>119019</v>
+        <v>117834</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>167973</v>
+        <v>168552</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04101183444116054</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03457374337315103</v>
+        <v>0.0342295467395299</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0487941427963773</v>
+        <v>0.04896238721240936</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>188</v>
@@ -2064,19 +2064,19 @@
         <v>148795</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>127725</v>
+        <v>128019</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>174075</v>
+        <v>172145</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04092964594263167</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0351337450127286</v>
+        <v>0.03521461615267173</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04788333883933724</v>
+        <v>0.04735245172392278</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>321</v>
@@ -2085,19 +2085,19 @@
         <v>289978</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>259638</v>
+        <v>258371</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>326354</v>
+        <v>325444</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04096962011088771</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03668311161397913</v>
+        <v>0.0365041358435128</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04610911714080661</v>
+        <v>0.04598048892699128</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>3301294</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3274503</v>
+        <v>3273924</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3323457</v>
+        <v>3324642</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9589881655588396</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9512058572036228</v>
+        <v>0.9510376127875907</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9654262566268491</v>
+        <v>0.9657704532604702</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5056</v>
@@ -2135,19 +2135,19 @@
         <v>3486598</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3461318</v>
+        <v>3463248</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3507668</v>
+        <v>3507374</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9590703540573684</v>
+        <v>0.9590703540573683</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9521166611606625</v>
+        <v>0.9526475482760771</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9648662549872713</v>
+        <v>0.9647853838473281</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8223</v>
@@ -2156,19 +2156,19 @@
         <v>6787891</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6751515</v>
+        <v>6752425</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6818231</v>
+        <v>6819498</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9590303798891122</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9538908828591934</v>
+        <v>0.9540195110730086</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9633168883860213</v>
+        <v>0.9634958641564871</v>
       </c>
     </row>
     <row r="24">
